--- a/dataAnalysis/csvFiles/specialGestures/ich_will_nach_hause_geste/ichwillnachhausegeste__5.xlsx
+++ b/dataAnalysis/csvFiles/specialGestures/ich_will_nach_hause_geste/ichwillnachhausegeste__5.xlsx
@@ -1761,11 +1761,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="127440768"/>
-        <c:axId val="127442304"/>
+        <c:axId val="159462912"/>
+        <c:axId val="159464448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="127440768"/>
+        <c:axId val="159462912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1774,7 +1774,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127442304"/>
+        <c:crossAx val="159464448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1782,7 +1782,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="127442304"/>
+        <c:axId val="159464448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1793,7 +1793,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127440768"/>
+        <c:crossAx val="159462912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1822,13 +1822,13 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
